--- a/student_database_200hr.xlsx
+++ b/student_database_200hr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA58"/>
+  <dimension ref="A1:AA61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,11 +643,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q2" t="n">
-        <v>2750</v>
-      </c>
-      <c r="R2" t="n">
-        <v>400</v>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -655,8 +659,10 @@
         </is>
       </c>
       <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>2350</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>2350</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -698,12 +704,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Dani Bass</t>
+          <t>Alina Iuga</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -713,15 +719,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dani.bass@btinternet.com</t>
+          <t>alinaiuga2@gmail.com</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -745,7 +747,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Direct (ex student)</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -754,27 +756,29 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q3" t="n">
-        <v>2750</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>2750</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>2350</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>Bank transfer made</t>
+          <t>Originally booked in 2023</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -801,12 +805,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Vyla Carter</t>
+          <t>Julie Hollard</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -814,23 +818,27 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>hollardjulie@gmail.com</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -849,29 +857,35 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q4" t="n">
-        <v>2100</v>
-      </c>
-      <c r="R4" t="n">
-        <v>400</v>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>14-Oct-2024</t>
+          <t>26-Oct-2024</t>
         </is>
       </c>
       <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>1700</v>
-      </c>
-      <c r="V4" t="inlineStr"/>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Stripe</t>
+        </is>
+      </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>Additional 2 days stay - 24/25 Jan @ $90 per day. Will pay with the balance</t>
-        </is>
-      </c>
+      <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
           <t>1</t>
@@ -896,12 +910,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Katrina Di</t>
+          <t>Dani Bass</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -911,13 +925,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Katrinadin@gmail.com</t>
+          <t>Dani.bass@btinternet.com</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -952,20 +966,22 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q5" t="n">
-        <v>2750</v>
-      </c>
-      <c r="R5" t="n">
-        <v>400</v>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>14-Oct-2024</t>
-        </is>
-      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="n">
-        <v>2350</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr">
@@ -976,7 +992,7 @@
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>additional night on the 16th of February</t>
+          <t>Bank transfer made</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1003,17 +1019,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Samin Yoga Gp 5</t>
+          <t>Vyla Carter</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -1026,7 +1042,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -1051,25 +1067,35 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q6" t="n">
-        <v>2750</v>
-      </c>
-      <c r="R6" t="n">
-        <v>400</v>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>13-Oct-2024</t>
+          <t>14-Oct-2024</t>
         </is>
       </c>
       <c r="T6" t="inlineStr"/>
-      <c r="U6" t="n">
-        <v>2350</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>Additional 2 days stay - 24/25 Jan @ $90 per day. Will pay with the balance</t>
+        </is>
+      </c>
       <c r="Z6" t="inlineStr">
         <is>
           <t>1</t>
@@ -1094,12 +1120,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Samin Yoga Gp 4</t>
+          <t>Katrina Di</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1107,12 +1133,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Katrinadin@gmail.com</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1142,25 +1176,39 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q7" t="n">
-        <v>2750</v>
-      </c>
-      <c r="R7" t="n">
-        <v>400</v>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>13-Oct-2024</t>
+          <t>14-Oct-2024</t>
         </is>
       </c>
       <c r="T7" t="inlineStr"/>
-      <c r="U7" t="n">
-        <v>2350</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>2350</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>additional night on the 16th of February</t>
+        </is>
+      </c>
       <c r="Z7" t="inlineStr">
         <is>
           <t>1</t>
@@ -1185,17 +1233,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Samin Yoga Gp 3</t>
+          <t>Samin Yoga Gp 5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -1208,7 +1256,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -1233,11 +1281,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q8" t="n">
-        <v>2100</v>
-      </c>
-      <c r="R8" t="n">
-        <v>400</v>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1245,8 +1297,10 @@
         </is>
       </c>
       <c r="T8" t="inlineStr"/>
-      <c r="U8" t="n">
-        <v>1700</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>2350</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
@@ -1276,12 +1330,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Samin Yoga Gp 2</t>
+          <t>Samin Yoga Gp 4</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1299,7 +1353,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -1324,11 +1378,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q9" t="n">
-        <v>2100</v>
-      </c>
-      <c r="R9" t="n">
-        <v>400</v>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1336,8 +1394,10 @@
         </is>
       </c>
       <c r="T9" t="inlineStr"/>
-      <c r="U9" t="n">
-        <v>1700</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>2350</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
@@ -1367,12 +1427,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Samantha (with dghtr)</t>
+          <t>Samin Yoga Gp 2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1390,7 +1450,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -1415,27 +1475,29 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q10" t="n">
-        <v>2750</v>
-      </c>
-      <c r="R10" t="n">
-        <v>400</v>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>12-Oct-2024</t>
+          <t>13-Oct-2024</t>
         </is>
       </c>
       <c r="T10" t="inlineStr"/>
-      <c r="U10" t="n">
-        <v>2350</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
@@ -1462,12 +1524,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Chloe Holden</t>
+          <t>Samin Yoga Gp 1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1475,16 +1537,12 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>chloeholden1402@gmail.com</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1500,7 +1558,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1514,11 +1572,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q11" t="n">
-        <v>2100</v>
-      </c>
-      <c r="R11" t="n">
-        <v>400</v>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1526,24 +1588,14 @@
         </is>
       </c>
       <c r="T11" t="inlineStr"/>
-      <c r="U11" t="n">
-        <v>1700</v>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>Gluten Free</t>
-        </is>
-      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
@@ -1569,12 +1621,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Samin Yoga Gp 1</t>
+          <t>Samantha (with dghtr)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1592,7 +1644,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1617,23 +1669,33 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q12" t="n">
-        <v>2100</v>
-      </c>
-      <c r="R12" t="n">
-        <v>400</v>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>13-Oct-2024</t>
+          <t>12-Oct-2024</t>
         </is>
       </c>
       <c r="T12" t="inlineStr"/>
-      <c r="U12" t="n">
-        <v>1700</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>2350</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
@@ -1660,12 +1722,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Amy Sobocinski</t>
+          <t>Samin Yoga Gp 3</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1673,29 +1735,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Amymsobocinski@gmail.com</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>+14102994767</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1720,31 +1770,29 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q13" t="n">
-        <v>2750</v>
-      </c>
-      <c r="R13" t="n">
-        <v>400</v>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>01-Oct-2024</t>
+          <t>13-Oct-2024</t>
         </is>
       </c>
       <c r="T13" t="inlineStr"/>
-      <c r="U13" t="n">
-        <v>2350</v>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>Stripe</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
@@ -1771,12 +1819,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Veronika Schaller</t>
+          <t>Brooke O'Connor</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1786,7 +1834,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vroni.schaller@web.de</t>
+          <t>bgoc2013@icloud.com</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -1820,27 +1868,33 @@
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="Q14" t="n">
-        <v>2100</v>
-      </c>
-      <c r="R14" t="n">
-        <v>400</v>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>22-Aug-2024</t>
+          <t>17-Oct-2024</t>
         </is>
       </c>
       <c r="T14" t="inlineStr"/>
-      <c r="U14" t="n">
-        <v>1700</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>Xendit</t>
+          <t>Bank transfer</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
@@ -1849,11 +1903,7 @@
         </is>
       </c>
       <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>Vroni.schaller@web.de</t>
-        </is>
-      </c>
+      <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
           <t>1</t>
@@ -1878,12 +1928,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Brooke O'Connor</t>
+          <t>Veronika Schaller</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1893,7 +1943,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>bgoc2013@icloud.com</t>
+          <t>Vroni.schaller@web.de</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -1927,27 +1977,33 @@
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q15" t="n">
-        <v>2100</v>
-      </c>
-      <c r="R15" t="n">
-        <v>400</v>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>17-Oct-2024</t>
+          <t>22-Aug-2024</t>
         </is>
       </c>
       <c r="T15" t="inlineStr"/>
-      <c r="U15" t="n">
-        <v>1700</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>Bank transfer</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
@@ -1956,7 +2012,11 @@
         </is>
       </c>
       <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>Vroni.schaller@web.de</t>
+        </is>
+      </c>
       <c r="Z15" t="inlineStr">
         <is>
           <t>1</t>
@@ -1981,30 +2041,26 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Jan Röttgen</t>
+          <t>Chloe Holden</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Capeman2110@gmail.com</t>
+          <t>chloeholden1402@gmail.com</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -2023,7 +2079,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -2037,24 +2093,30 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q16" t="n">
-        <v>2100</v>
-      </c>
-      <c r="R16" t="n">
-        <v>382.25</v>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>22-Aug-2024</t>
+          <t>13-Oct-2024</t>
         </is>
       </c>
       <c r="T16" t="inlineStr"/>
-      <c r="U16" t="n">
-        <v>1717.75</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>PayPal</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
@@ -2062,7 +2124,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr"/>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Gluten Free</t>
+        </is>
+      </c>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
@@ -2088,26 +2154,30 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Ellie Walters</t>
+          <t>Jan Röttgen</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>elliewalters98@gmail.com</t>
+          <t>Capeman2110@gmail.com</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -2119,10 +2189,14 @@
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -2136,24 +2210,30 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q17" t="n">
-        <v>2100</v>
-      </c>
-      <c r="R17" t="n">
-        <v>400</v>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>382.25</t>
+        </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>4-Sep-2024</t>
+          <t>22-Aug-2024</t>
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
-      <c r="U17" t="n">
-        <v>1700</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>1717.75</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Xendit</t>
+          <t>PayPal</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
@@ -2162,11 +2242,7 @@
         </is>
       </c>
       <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>elliewalters98@gmail.com</t>
-        </is>
-      </c>
+      <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
           <t>1</t>
@@ -2191,12 +2267,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Amalia Sepan</t>
+          <t>Ellie Walters</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2206,15 +2282,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve">amalia.sepan@icloud.com </t>
+          <t>elliewalters98@gmail.com</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -2225,19 +2297,11 @@
           <t>Twin share</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Partner // Sharing Room</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -2251,24 +2315,30 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q18" t="n">
-        <v>2100</v>
-      </c>
-      <c r="R18" t="n">
-        <v>382.25</v>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>22-Aug-2024</t>
+          <t>4-Sep-2024</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
-      <c r="U18" t="n">
-        <v>1717.75</v>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>PayPal</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
@@ -2279,7 +2349,7 @@
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>Together // amalia.sepan@icloud.com // Capeman2110@gmail.com</t>
+          <t>elliewalters98@gmail.com</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2306,25 +2376,37 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Adrian Sotelo</t>
+          <t>Caroline Kohl</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>caroline_kohl@web.de</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0049 171 691 2356</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>caroline_kohl@web.de</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2333,11 +2415,7 @@
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -2345,7 +2423,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
@@ -2354,20 +2432,26 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q19" t="n">
-        <v>4200</v>
-      </c>
-      <c r="R19" t="n">
-        <v>400</v>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>22-Sep-2024</t>
+          <t>5-Sep-2024</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
-      <c r="U19" t="n">
-        <v>3800</v>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2380,7 +2464,11 @@
         </is>
       </c>
       <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>caroline_kohl@web.de</t>
+        </is>
+      </c>
       <c r="Z19" t="inlineStr">
         <is>
           <t>1</t>
@@ -2405,12 +2493,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Maddison Ball</t>
+          <t>Amalia Sepan</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2418,20 +2506,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>+44 7958 032112</t>
-        </is>
-      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">amalia.sepan@icloud.com </t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -2439,7 +2527,11 @@
           <t>Twin share</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Partner // Sharing Room</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
           <t>No</t>
@@ -2452,7 +2544,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
@@ -2461,29 +2553,43 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q20" t="n">
-        <v>2100</v>
-      </c>
-      <c r="R20" t="n">
-        <v>400</v>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>382.25</t>
+        </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>10-Aug-2024</t>
+          <t>22-Aug-2024</t>
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
-      <c r="U20" t="n">
-        <v>1700</v>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>1717.75</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Bank transfer</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr"/>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>Together // amalia.sepan@icloud.com // Capeman2110@gmail.com</t>
+        </is>
+      </c>
       <c r="Z20" t="inlineStr">
         <is>
           <t>1</t>
@@ -2508,38 +2614,38 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Pien Bergshoeff</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>pienbergshoeff@gmail.com</t>
-        </is>
-      </c>
+          <t>Maddison Ball</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>+31621237804</t>
+          <t>+44 7958 032112</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Netherland</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -2550,12 +2656,12 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
@@ -2564,37 +2670,35 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q21" t="n">
-        <v>2750</v>
-      </c>
-      <c r="R21" t="n">
-        <v>400</v>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>26-Sep-2024</t>
+          <t>10-Aug-2024</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
-      <c r="U21" t="n">
-        <v>2350</v>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Bank transfer</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Will join the short retreat, first retreat will be scheduled from the 23rd of January - 26th of January and the second retreat will be from the 16th of February - 19th of February 2025. </t>
-        </is>
-      </c>
+      <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
           <t>1</t>
@@ -2619,32 +2723,28 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Caroline Kohl</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
+          <t>Pien Bergshoeff</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>caroline_kohl@web.de</t>
+          <t>pienbergshoeff@gmail.com</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0049 171 691 2356</t>
+          <t>+31621237804</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>caroline_kohl@web.de</t>
+          <t>Netherland</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2654,14 +2754,18 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2675,24 +2779,30 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q22" t="n">
-        <v>2100</v>
-      </c>
-      <c r="R22" t="n">
-        <v>400</v>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>1262.38</t>
+        </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>5-Sep-2024</t>
+          <t>26-Sep-2024</t>
         </is>
       </c>
       <c r="T22" t="inlineStr"/>
-      <c r="U22" t="n">
-        <v>1700</v>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>1487.62</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>PayPal</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
@@ -2703,7 +2813,7 @@
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>caroline_kohl@web.de</t>
+          <t xml:space="preserve">Will join the short retreat, first retreat will be scheduled from the 23rd of January - 26th of January and the second retreat will be from the 16th of February - 19th of February 2025. </t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -2720,12 +2830,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>February 24, 2025</t>
+          <t>January 26, 2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>March 17, 2025</t>
+          <t>February 16, 2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2735,7 +2845,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Nathalia Ramirez</t>
+          <t>Amy Sobocinski</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2745,11 +2855,19 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>nathy924@hotmail.com</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+          <t>Amymsobocinski@gmail.com</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>+14102994767</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -2757,14 +2875,10 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Twin share</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
           <t>No</t>
@@ -2786,24 +2900,30 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q23" t="n">
-        <v>2100</v>
-      </c>
-      <c r="R23" t="n">
-        <v>400</v>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>28 September 2024</t>
+          <t>01-Oct-2024</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
-      <c r="U23" t="n">
-        <v>1700</v>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>2350</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Xendit</t>
+          <t>Stripe</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
@@ -2812,58 +2932,50 @@
         </is>
       </c>
       <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>Husband &amp; Wife - sharing Private Room // Nat has mild pollen allergy, but taking medications and she will be fine</t>
-        </is>
-      </c>
+      <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>February 24, 2025 to March 17, 2025</t>
+          <t>January 26, 2025 to February 16, 2025</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>February 24, 2025</t>
+          <t>January 26, 2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>March 17, 2025</t>
+          <t>February 16, 2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Nicole Dubinin</t>
+          <t>Adrian Sotelo</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Nicoledubinin9@gmail.com</t>
-        </is>
-      </c>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2874,7 +2986,7 @@
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2884,7 +2996,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
@@ -2893,41 +3005,47 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q24" t="n">
-        <v>2100</v>
-      </c>
-      <c r="R24" t="n">
-        <v>400</v>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>4200</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>16 October 2024</t>
+          <t>22-Sep-2024</t>
         </is>
       </c>
       <c r="T24" t="inlineStr"/>
-      <c r="U24" t="n">
-        <v>1700</v>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>3800</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr"/>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t>Nicoledubinin9@gmail.com</t>
-        </is>
-      </c>
+      <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>February 24, 2025 to March 17, 2025</t>
+          <t>January 26, 2025 to February 16, 2025</t>
         </is>
       </c>
     </row>
@@ -2944,12 +3062,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kristhianne Cid de León </t>
+          <t>Nathalia Ramirez</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2957,12 +3075,16 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>nathy924@hotmail.com</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2970,7 +3092,11 @@
           <t>Twin share</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
           <t>No</t>
@@ -2983,7 +3109,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -2992,31 +3118,41 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q25" t="n">
-        <v>2100</v>
-      </c>
-      <c r="R25" t="n">
-        <v>400</v>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>10-Jul-2024</t>
+          <t>28 September 2024</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
-      <c r="U25" t="n">
-        <v>1700</v>
-      </c>
-      <c r="V25" t="inlineStr"/>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
+          <t>No</t>
         </is>
       </c>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>Booked in Jul 2024 at previous fee. Due to injury changing to Feb 2024 with the new fee</t>
+          <t>Husband &amp; Wife - sharing Private Room // Nat has mild pollen allergy, but taking medications and she will be fine</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -3043,25 +3179,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Jessica Eryeti Dy</t>
+          <t>Gabriel Campaner Bascuñana</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>jessicaedy.work@gmail.com</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
+          <t>GabrielCampanerCoach@gmail.com</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>3460387145</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
@@ -3084,42 +3224,36 @@
           <t>Sales assisted booking</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
-        </is>
-      </c>
+      <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Q26" t="n">
-        <v>2100</v>
-      </c>
-      <c r="R26" t="n">
-        <v>400</v>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>7-Sep-2024</t>
-        </is>
-      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
-      <c r="U26" t="n">
-        <v>1700</v>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>Bank Transfer</t>
-        </is>
-      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> jessicaedy.wok@gmail.com</t>
+          <t>Hold until 29.10</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3146,29 +3280,29 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Ben McDonald-Stuart</t>
+          <t>Nicole Dubinin</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr"/>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Nicoledubinin9@gmail.com</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -3177,7 +3311,11 @@
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M27" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -3185,7 +3323,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
@@ -3194,33 +3332,39 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q27" t="n">
-        <v>2100</v>
-      </c>
-      <c r="R27" t="n">
-        <v>400</v>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>20-Sep</t>
+          <t>16 October 2024</t>
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="n">
-        <v>1700</v>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>PayPal</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>Nicoledubinin9@gmail.com</t>
+        </is>
+      </c>
       <c r="Z27" t="inlineStr">
         <is>
           <t>2</t>
@@ -3245,33 +3389,25 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Jonathan Saldarriaga</t>
+          <t xml:space="preserve">Kristhianne Cid de León </t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Jonathan0391@hotmail.com</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>+4917664828174</t>
-        </is>
-      </c>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -3279,11 +3415,7 @@
           <t>Twin share</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
           <t>No</t>
@@ -3296,7 +3428,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
@@ -3305,33 +3437,39 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q28" t="n">
-        <v>2100</v>
-      </c>
-      <c r="R28" t="n">
-        <v>400</v>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>28 September 2024</t>
+          <t>10-Jul-2024</t>
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="n">
-        <v>1700</v>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
         </is>
       </c>
       <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>Booked in Jul 2024 at previous fee. Due to injury changing to Feb 2024 with the new fee</t>
+        </is>
+      </c>
       <c r="Z28" t="inlineStr">
         <is>
           <t>2</t>
@@ -3356,12 +3494,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Jutta</t>
+          <t>Jessica Eryeti Dy</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -3369,16 +3507,16 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>jessicaedy.work@gmail.com</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -3386,11 +3524,7 @@
           <t>Twin share</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
           <t>No</t>
@@ -3403,7 +3537,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -3412,25 +3546,39 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q29" t="n">
-        <v>2100</v>
-      </c>
-      <c r="R29" t="n">
-        <v>400</v>
-      </c>
-      <c r="S29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>7-Sep-2024</t>
+        </is>
+      </c>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="n">
-        <v>1700</v>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>PayPal</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> jessicaedy.wok@gmail.com</t>
+        </is>
+      </c>
       <c r="Z29" t="inlineStr">
         <is>
           <t>2</t>
@@ -3455,12 +3603,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Asaf kehati</t>
+          <t>Ben McDonald-Stuart</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -3472,7 +3620,7 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -3485,16 +3633,8 @@
           <t>Twin share</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -3511,27 +3651,37 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q30" t="n">
-        <v>2100</v>
-      </c>
-      <c r="R30" t="n">
-        <v>400</v>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>10-Sep</t>
+          <t>20-Sep</t>
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="n">
-        <v>1700</v>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
           <t>PayPal</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
@@ -3558,37 +3708,45 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Carly Murphy</t>
+          <t>Jonathan Saldarriaga</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Jonathan0391@hotmail.com</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>+4917664828174</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Private</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr"/>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>No</t>
@@ -3601,7 +3759,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -3610,33 +3768,39 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q31" t="n">
-        <v>2750</v>
-      </c>
-      <c r="R31" t="n">
-        <v>400</v>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>10-Aug-2024</t>
+          <t>28 September 2024</t>
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="n">
-        <v>2350</v>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>PayPal</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr"/>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t>Booking done in early Aug but updated the sheet late</t>
-        </is>
-      </c>
+      <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
           <t>2</t>
@@ -3661,12 +3825,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mahariana</t>
+          <t>Jutta</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -3676,7 +3840,11 @@
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
       <c r="I32" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -3684,10 +3852,14 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Private</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr"/>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
           <t>No</t>
@@ -3709,16 +3881,22 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q32" t="n">
-        <v>1972</v>
-      </c>
-      <c r="R32" t="n">
-        <v>400</v>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="n">
-        <v>1572</v>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3727,11 +3905,7 @@
       </c>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Already paid $400 to HOM but changed to Retreat and then further change to TTC in 2025 after multiple calls </t>
-        </is>
-      </c>
+      <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
           <t>2</t>
@@ -3756,12 +3930,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Sarah Rayment Davies</t>
+          <t>Carly Murphy</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -3771,7 +3945,11 @@
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
       <c r="I33" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -3779,7 +3957,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -3804,16 +3982,26 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q33" t="n">
-        <v>2100</v>
-      </c>
-      <c r="R33" t="n">
-        <v>400</v>
-      </c>
-      <c r="S33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>10-Aug-2024</t>
+        </is>
+      </c>
       <c r="T33" t="inlineStr"/>
-      <c r="U33" t="n">
-        <v>1700</v>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>2350</t>
+        </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3822,7 +4010,11 @@
       </c>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>Booking done in early Aug but updated the sheet late</t>
+        </is>
+      </c>
       <c r="Z33" t="inlineStr">
         <is>
           <t>2</t>
@@ -3847,12 +4039,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Kanan</t>
+          <t>Mahariana</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3862,11 +4054,7 @@
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -3894,22 +4082,40 @@
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="inlineStr"/>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>1572</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Already paid $400 to HOM but changed to Retreat and then further change to TTC in 2025 after multiple calls </t>
+        </is>
+      </c>
       <c r="Z34" t="inlineStr">
         <is>
           <t>2</t>
@@ -3934,12 +4140,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Maren Refert</t>
+          <t>Sarah Rayment Davies</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -3947,16 +4153,12 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>maren.refert@gmx.com</t>
-        </is>
-      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -3972,12 +4174,12 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -3986,24 +4188,26 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q35" t="n">
-        <v>2100</v>
-      </c>
-      <c r="R35" t="n">
-        <v>400</v>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>21 Sep 2024</t>
-        </is>
-      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="n">
-        <v>1700</v>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Xendit</t>
+          <t>PayPal</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -4033,12 +4237,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Anna Stubbs</t>
+          <t>Kanan</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -4050,7 +4254,7 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>US</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -4080,31 +4284,25 @@
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q36" t="n">
-        <v>2750</v>
-      </c>
-      <c r="R36" t="n">
-        <v>400</v>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>19-Aug-2024</t>
-        </is>
-      </c>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="n">
-        <v>2350</v>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>PayPal</t>
-        </is>
-      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
@@ -4132,12 +4330,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Ulrike Maier</t>
+          <t>Maren Refert</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -4147,7 +4345,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>maier.ulrike64@gmx.de</t>
+          <t>maren.refert@gmx.com</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -4170,12 +4368,12 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Instagram </t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -4184,33 +4382,35 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q37" t="n">
-        <v>2100</v>
-      </c>
-      <c r="R37" t="n">
-        <v>399.31</v>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>21-Aug-2024</t>
+          <t>21 Sep 2024</t>
         </is>
       </c>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="n">
-        <v>1700.69</v>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>PayPal</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>maier.ulrike64@gmx.de</t>
-        </is>
-      </c>
+      <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
           <t>2</t>
@@ -4225,22 +4425,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>March 21, 2025</t>
+          <t>February 24, 2025</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>April 11, 2025</t>
+          <t>March 17, 2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Jéssica Schleiermacher</t>
+          <t>Anna Stubbs</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -4248,16 +4448,16 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>jessicasimiro@gmail.com</t>
-        </is>
-      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -4266,7 +4466,11 @@
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M38" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -4274,7 +4478,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -4283,63 +4487,65 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q38" t="n">
-        <v>2750</v>
-      </c>
-      <c r="R38" t="n">
-        <v>400</v>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>24-Oct-2024</t>
+          <t>19-Aug-2024</t>
         </is>
       </c>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="n">
-        <v>2350</v>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>2350</t>
+        </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>March 21, 2025 to April 11, 2025</t>
+          <t>February 24, 2025 to March 17, 2025</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>March 21, 2025</t>
+          <t>February 24, 2025</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>April 11, 2025</t>
+          <t>March 17, 2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Tanya Mistry</t>
+          <t>Ulrike Maier</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -4349,19 +4555,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tanyamistry94@gmail.com </t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>919820611611</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+          <t>maier.ulrike64@gmx.de</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -4369,11 +4567,15 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M39" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -4381,7 +4583,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t xml:space="preserve">Instagram </t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -4390,80 +4592,86 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q39" t="n">
-        <v>2750</v>
-      </c>
-      <c r="R39" t="n">
-        <v>400</v>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>399.31</t>
+        </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>31-Aug-2024</t>
+          <t>21-Aug-2024</t>
         </is>
       </c>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="n">
-        <v>2350</v>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>1700.69</t>
+        </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Stripe</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="X39" t="inlineStr">
-        <is>
-          <t>Vegan/Dairy free</t>
-        </is>
-      </c>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>Tanyamistry94@gmail.com // she cannot eat paneer // Moved from Jan</t>
+          <t>maier.ulrike64@gmx.de</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>March 21, 2025 to April 11, 2025</t>
+          <t>February 24, 2025 to March 17, 2025</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>March 21, 2025</t>
+          <t>February 24, 2025</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>April 11, 2025</t>
+          <t>March 17, 2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Gwen Deitz</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
+          <t>Asaf kehati</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -4471,47 +4679,69 @@
           <t>Twin share</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Search Engines - Google, Safari etc..</t>
+        </is>
+      </c>
       <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="n">
-        <v>2100</v>
-      </c>
-      <c r="R40" t="n">
-        <v>400</v>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>10-Oct-2024</t>
+          <t>10-Sep</t>
         </is>
       </c>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="n">
-        <v>1700</v>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Xendit</t>
+          <t>PayPal</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr">
-        <is>
-          <t>gwendeitz3611@gmail.com</t>
-        </is>
-      </c>
+      <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>March 21, 2025 to April 11, 2025</t>
+          <t>February 24, 2025 to March 17, 2025</t>
         </is>
       </c>
     </row>
@@ -4528,12 +4758,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Janiya Runaya (DS Ref)</t>
+          <t>Sunita (DS Ref)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -4551,7 +4781,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -4568,20 +4798,26 @@
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="n">
-        <v>2750</v>
-      </c>
-      <c r="R41" t="n">
-        <v>400</v>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>28-Sep</t>
+          <t>1-Sep</t>
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
-      <c r="U41" t="n">
-        <v>2350</v>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
       </c>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
@@ -4611,12 +4847,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Wahiba daughter-YB</t>
+          <t>Jéssica Schleiermacher</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -4624,50 +4860,72 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>jessicasimiro@gmail.com</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="n">
-        <v>2100</v>
-      </c>
-      <c r="R42" t="n">
-        <v>400</v>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>29-Aug</t>
+          <t>24-Oct-2024</t>
         </is>
       </c>
       <c r="T42" t="inlineStr"/>
-      <c r="U42" t="n">
-        <v>1700</v>
-      </c>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
@@ -4694,12 +4952,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Sunita (DS Ref)</t>
+          <t>Tanya Mistry</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -4707,52 +4965,90 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tanyamistry94@gmail.com </t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>919820611611</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="n">
-        <v>2100</v>
-      </c>
-      <c r="R43" t="n">
-        <v>400</v>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>1-Sep</t>
+          <t>31-Aug-2024</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
-      <c r="U43" t="n">
-        <v>1700</v>
-      </c>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Stripe</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>Vegan/Dairy free</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>Tanyamistry94@gmail.com // she cannot eat paneer // Moved from Jan</t>
+        </is>
+      </c>
       <c r="Z43" t="inlineStr">
         <is>
           <t>3</t>
@@ -4777,65 +5073,67 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Rumera Ash-REF</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
+          <t>Gwen Deitz</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>Direct - paid w/t assist</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>Search Engines - Google, Safari etc..</t>
-        </is>
-      </c>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="n">
-        <v>2750</v>
-      </c>
-      <c r="R44" t="n">
-        <v>400</v>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>12-Aug</t>
+          <t>10-Oct-2024</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="n">
-        <v>2350</v>
-      </c>
-      <c r="V44" t="inlineStr"/>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>gwendeitz3611@gmail.com</t>
+        </is>
+      </c>
       <c r="Z44" t="inlineStr">
         <is>
           <t>3</t>
@@ -4860,12 +5158,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Janiya Runaya (DS Ref)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -4883,19 +5181,11 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Twin share</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
           <t>Direct - paid w/t assist</t>
@@ -4908,26 +5198,28 @@
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="n">
-        <v>2100</v>
-      </c>
-      <c r="R45" t="n">
-        <v>400</v>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>9-Jul-2024</t>
+          <t>28-Sep</t>
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="n">
-        <v>1700</v>
-      </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>PayPal</t>
-        </is>
-      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
@@ -4955,17 +5247,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>Wahiba daughter-YB</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -4981,16 +5273,8 @@
           <t>Twin share</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
           <t>Direct - paid w/t assist</t>
@@ -5003,26 +5287,28 @@
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="n">
-        <v>2100</v>
-      </c>
-      <c r="R46" t="n">
-        <v>400</v>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>9-Jul-2024</t>
+          <t>29-Aug</t>
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="n">
-        <v>1700</v>
-      </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>PayPal</t>
-        </is>
-      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
@@ -5050,65 +5336,71 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Monica Milillo</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
+          <t>Wahiba-YB</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr"/>
+          <t>Direct - paid w/t assist</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Search Engines - Google, Safari etc..</t>
+        </is>
+      </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="n">
-        <v>2750</v>
-      </c>
-      <c r="R47" t="n">
-        <v>400</v>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>8-Sep-2024</t>
+          <t>29-Aug</t>
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
-      <c r="U47" t="n">
-        <v>2350</v>
-      </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr">
-        <is>
-          <t>monicamilillo02@gmail.com</t>
-        </is>
-      </c>
+      <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
           <t>3</t>
@@ -5133,12 +5425,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Wahiba-YB</t>
+          <t>Rumera Ash-REF</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -5156,7 +5448,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -5173,20 +5465,26 @@
       </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="n">
-        <v>2100</v>
-      </c>
-      <c r="R48" t="n">
-        <v>400</v>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>29-Aug</t>
+          <t>12-Aug</t>
         </is>
       </c>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="n">
-        <v>1700</v>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>2350</t>
+        </is>
       </c>
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
@@ -5206,22 +5504,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>April 19, 2025</t>
+          <t>March 21, 2025</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>May 10, 2025</t>
+          <t>April 11, 2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Samantha Foster</t>
+          <t>Lisa</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -5231,86 +5529,88 @@
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Private</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Instagram </t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q49" t="n">
-        <v>2750</v>
-      </c>
-      <c r="R49" t="n">
-        <v>400</v>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>18-Aug-2024</t>
+          <t>9-Jul-2024</t>
         </is>
       </c>
       <c r="T49" t="inlineStr"/>
-      <c r="U49" t="n">
-        <v>2350</v>
-      </c>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr">
-        <is>
-          <t>samanthaannefoster@outlook.com//hold until 18.08</t>
-        </is>
-      </c>
+      <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>April 19, 2025 to May 10, 2025</t>
+          <t>March 21, 2025 to April 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>April 19, 2025</t>
+          <t>March 21, 2025</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>May 10, 2025</t>
+          <t>April 11, 2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -5320,21 +5620,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Julia Ben-YB</t>
+          <t>Richard</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -5342,93 +5638,99 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Private</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Direct - I was recommended to visit</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q50" t="n">
-        <v>2750</v>
-      </c>
-      <c r="R50" t="n">
-        <v>400</v>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>27-Aug</t>
+          <t>9-Jul-2024</t>
         </is>
       </c>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="n">
-        <v>2350</v>
-      </c>
-      <c r="V50" t="inlineStr"/>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>April 19, 2025 to May 10, 2025</t>
+          <t>March 21, 2025 to April 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>April 19, 2025</t>
+          <t>March 21, 2025</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>May 10, 2025</t>
+          <t>April 11, 2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Mosana Wahibi Rekhi-YB</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
+          <t>Monica Milillo</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>UAE</t>
-        </is>
-      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -5440,47 +5742,53 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Search Engines - Google, Safari etc..</t>
-        </is>
-      </c>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q51" t="n">
-        <v>2750</v>
-      </c>
-      <c r="R51" t="n">
-        <v>400</v>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>27-Aug</t>
+          <t>8-Sep-2024</t>
         </is>
       </c>
       <c r="T51" t="inlineStr"/>
-      <c r="U51" t="n">
-        <v>2350</v>
-      </c>
-      <c r="V51" t="inlineStr"/>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>monicamilillo02@gmail.com</t>
+        </is>
+      </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>April 19, 2025 to May 10, 2025</t>
+          <t>March 21, 2025 to April 11, 2025</t>
         </is>
       </c>
     </row>
@@ -5497,12 +5805,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Ylenia Votano</t>
+          <t>Samantha Foster</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -5514,17 +5822,17 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
@@ -5536,7 +5844,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t xml:space="preserve">Instagram </t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -5545,25 +5853,39 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q52" t="n">
-        <v>2100</v>
-      </c>
-      <c r="R52" t="n">
-        <v>400</v>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>15-Sep</t>
+          <t>18-Aug-2024</t>
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
-      <c r="U52" t="n">
-        <v>1700</v>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>2350</t>
+        </is>
       </c>
       <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>samanthaannefoster@outlook.com//hold until 18.08</t>
+        </is>
+      </c>
       <c r="Z52" t="inlineStr">
         <is>
           <t>4</t>
@@ -5578,22 +5900,22 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>May 14, 2025</t>
+          <t>April 19, 2025</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>June 04, 2025</t>
+          <t>May 10, 2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Melisa gomez jattin</t>
+          <t>Julia Ben-YB</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -5601,29 +5923,25 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Mgomezjattin95@gmail.com</t>
-        </is>
-      </c>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -5631,7 +5949,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Direct - I was recommended to visit</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -5640,63 +5958,61 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q53" t="n">
-        <v>2100</v>
-      </c>
-      <c r="R53" t="n">
-        <v>1699.43</v>
-      </c>
-      <c r="S53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>27-Aug</t>
+        </is>
+      </c>
       <c r="T53" t="inlineStr"/>
-      <c r="U53" t="n">
-        <v>400.57</v>
-      </c>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W53" t="inlineStr">
-        <is>
-          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
-        </is>
-      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr">
-        <is>
-          <t>Moved from 1 DEC - 21 DEC 2024</t>
-        </is>
-      </c>
+      <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>May 14, 2025 to June 04, 2025</t>
+          <t>April 19, 2025 to May 10, 2025</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>August 05, 2025</t>
+          <t>April 19, 2025</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>August 26, 2025</t>
+          <t>May 10, 2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Lydia May Ward</t>
+          <t>Mosana Wahibi Rekhi-YB</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -5708,7 +6024,7 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>UAE</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -5722,11 +6038,7 @@
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -5737,30 +6049,32 @@
           <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Q54" t="n">
-        <v>2750</v>
-      </c>
-      <c r="R54" t="n">
-        <v>400</v>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>11-Oct-2024</t>
+          <t>27-Aug</t>
         </is>
       </c>
       <c r="T54" t="inlineStr"/>
-      <c r="U54" t="n">
-        <v>2350</v>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>2350</t>
+        </is>
       </c>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
@@ -5768,34 +6082,34 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>August 05, 2025 to August 26, 2025</t>
+          <t>April 19, 2025 to May 10, 2025</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>November 21, 2025</t>
+          <t>April 19, 2025</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>December 12, 2025</t>
+          <t>May 10, 2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Jaina Patel</t>
+          <t>Ylenia Votano</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -5807,7 +6121,7 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -5821,11 +6135,7 @@
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -5836,30 +6146,32 @@
           <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
-      </c>
+      <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="Q55" t="n">
-        <v>1890</v>
-      </c>
-      <c r="R55" t="n">
-        <v>400</v>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>10-Jul</t>
+          <t>15-Sep</t>
         </is>
       </c>
       <c r="T55" t="inlineStr"/>
-      <c r="U55" t="n">
-        <v>1490</v>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
       </c>
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
@@ -5867,34 +6179,34 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>November 21, 2025 to December 12, 2025</t>
+          <t>April 19, 2025 to May 10, 2025</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>December 16, 2025</t>
+          <t>May 14, 2025</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>January 06, 2026</t>
+          <t>June 04, 2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Anatta Vela</t>
+          <t>Melisa gomez jattin</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -5902,12 +6214,12 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>+19179388805</t>
-        </is>
-      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Mgomezjattin95@gmail.com</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
@@ -5916,7 +6228,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -5930,23 +6242,33 @@
           <t>Sales assisted booking</t>
         </is>
       </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
       <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="n">
-        <v>2750</v>
-      </c>
-      <c r="R56" t="n">
-        <v>400</v>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>28-May-2024</t>
-        </is>
-      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>1699.43</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="n">
-        <v>2350</v>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>400.57</t>
+        </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
@@ -5961,29 +6283,29 @@
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>anatta.vela@gmail.com moved from Dec 23rd 2024</t>
+          <t>Moved from 1 DEC - 21 DEC 2024</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>December 16, 2025 to January 06, 2026</t>
+          <t>May 14, 2025 to June 04, 2025</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>December 16, 2025</t>
+          <t>August 05, 2025</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>January 06, 2026</t>
+          <t>August 26, 2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -5993,7 +6315,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Helena von Keller</t>
+          <t>Lydia May Ward</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -6002,20 +6324,20 @@
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>+491728129488</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -6029,83 +6351,93 @@
           <t>Sales assisted booking</t>
         </is>
       </c>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="n">
-        <v>1700</v>
-      </c>
-      <c r="R57" t="n">
-        <v>1700</v>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Search Engines - Google, Safari etc..</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>12 July 2024</t>
+          <t>11-Oct-2024</t>
         </is>
       </c>
       <c r="T57" t="inlineStr"/>
-      <c r="U57" t="n">
-        <v>0</v>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>2350</t>
+        </is>
       </c>
       <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
+      <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr">
-        <is>
-          <t>helena@vonkeller.org. Moved from 3 Sep 2024 - 23 Sep 2024. Management agreed to reschedule without additional charge. (amoCRM)</t>
-        </is>
-      </c>
+      <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>December 16, 2025 to January 06, 2026</t>
+          <t>August 05, 2025 to August 26, 2025</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>December 16, 2025</t>
+          <t>November 21, 2025</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>January 06, 2026</t>
+          <t>December 12, 2025</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Paul Vigil</t>
+          <t>Jaina Patel</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>paul33vigil@gmail.com</t>
-        </is>
-      </c>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -6124,46 +6456,363 @@
           <t>Sales assisted booking</t>
         </is>
       </c>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="n">
-        <v>2100</v>
-      </c>
-      <c r="R58" t="n">
-        <v>400</v>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Search Engines - Google, Safari etc..</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>1890</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S58" t="inlineStr">
         <is>
+          <t>10-Jul</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>1490</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>November 21, 2025 to December 12, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>December 16, 2025</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>January 06, 2026</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Anatta Vela</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>+19179388805</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>28-May-2024</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>anatta.vela@gmail.com moved from Dec 23rd 2024</t>
+        </is>
+      </c>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>December 16, 2025 to January 06, 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>December 16, 2025</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>January 06, 2026</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Helena von Keller</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>+491728129488</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>12 July 2024</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>helena@vonkeller.org. Moved from 3 Sep 2024 - 23 Sep 2024. Management agreed to reschedule without additional charge. (amoCRM)</t>
+        </is>
+      </c>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AA60" t="inlineStr">
+        <is>
+          <t>December 16, 2025 to January 06, 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>December 16, 2025</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>January 06, 2026</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Paul Vigil</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>paul33vigil@gmail.com</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
           <t>01-May-2024</t>
         </is>
       </c>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="n">
-        <v>1700</v>
-      </c>
-      <c r="V58" t="inlineStr">
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
         <is>
           <t>PayPal</t>
         </is>
       </c>
-      <c r="W58" t="inlineStr">
+      <c r="W61" t="inlineStr">
         <is>
           <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
         </is>
       </c>
-      <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr">
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr">
         <is>
           <t>Moved from Dec 1st 2024 - doesn't mind sharing room with female</t>
         </is>
       </c>
-      <c r="Z58" t="inlineStr">
+      <c r="Z61" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="AA58" t="inlineStr">
+      <c r="AA61" t="inlineStr">
         <is>
           <t>December 16, 2025 to January 06, 2026</t>
         </is>

--- a/student_database_200hr.xlsx
+++ b/student_database_200hr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA61"/>
+  <dimension ref="A1:AA62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3930,24 +3930,24 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Carly Murphy</t>
+          <t>Asaf kehati</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -3957,10 +3957,14 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Private</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr"/>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
           <t>No</t>
@@ -3984,7 +3988,7 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3994,13 +3998,13 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>10-Aug-2024</t>
+          <t>10-Sep</t>
         </is>
       </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -4010,11 +4014,7 @@
       </c>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr">
-        <is>
-          <t>Booking done in early Aug but updated the sheet late</t>
-        </is>
-      </c>
+      <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
           <t>2</t>
@@ -4039,12 +4039,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Mahariana</t>
+          <t>Carly Murphy</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -4054,7 +4054,11 @@
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -4089,7 +4093,7 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -4097,11 +4101,15 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr"/>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>10-Aug-2024</t>
+        </is>
+      </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>1572</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -4113,7 +4121,7 @@
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Already paid $400 to HOM but changed to Retreat and then further change to TTC in 2025 after multiple calls </t>
+          <t>Booking done in early Aug but updated the sheet late</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -4140,12 +4148,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Sarah Rayment Davies</t>
+          <t>Mahariana</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -4163,7 +4171,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -4190,7 +4198,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -4202,7 +4210,7 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>1572</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -4212,7 +4220,11 @@
       </c>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Already paid $400 to HOM but changed to Retreat and then further change to TTC in 2025 after multiple calls </t>
+        </is>
+      </c>
       <c r="Z35" t="inlineStr">
         <is>
           <t>2</t>
@@ -4237,12 +4249,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Kanan</t>
+          <t>Sarah Rayment Davies</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -4252,11 +4264,7 @@
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -4264,7 +4272,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -4284,25 +4292,33 @@
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr"/>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
@@ -4330,12 +4346,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Maren Refert</t>
+          <t>Kanan</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -4343,21 +4359,21 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>maren.refert@gmx.com</t>
-        </is>
-      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -4368,46 +4384,34 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>21 Sep 2024</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
@@ -4435,12 +4439,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Anna Stubbs</t>
+          <t>Maren Refert</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -4448,21 +4452,21 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>maren.refert@gmx.com</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -4473,12 +4477,12 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -4489,7 +4493,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -4499,18 +4503,18 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>19-Aug-2024</t>
+          <t>21 Sep 2024</t>
         </is>
       </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>PayPal</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -4540,12 +4544,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Ulrike Maier</t>
+          <t>Anna Stubbs</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -4553,21 +4557,21 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>maier.ulrike64@gmx.de</t>
-        </is>
-      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -4583,7 +4587,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Instagram </t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -4594,23 +4598,23 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>399.31</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>21-Aug-2024</t>
+          <t>19-Aug-2024</t>
         </is>
       </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>1700.69</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -4620,11 +4624,7 @@
       </c>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr">
-        <is>
-          <t>maier.ulrike64@gmx.de</t>
-        </is>
-      </c>
+      <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
           <t>2</t>
@@ -4649,29 +4649,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Asaf kehati</t>
+          <t>Ulrike Maier</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr"/>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>maier.ulrike64@gmx.de</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -4679,11 +4679,7 @@
           <t>Twin share</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
           <t>No</t>
@@ -4696,7 +4692,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t xml:space="preserve">Instagram </t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -4712,18 +4708,18 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>399.31</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>10-Sep</t>
+          <t>21-Aug-2024</t>
         </is>
       </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>1700.69</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -4733,7 +4729,11 @@
       </c>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>maier.ulrike64@gmx.de</t>
+        </is>
+      </c>
       <c r="Z40" t="inlineStr">
         <is>
           <t>2</t>
@@ -4758,30 +4758,30 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Sunita (DS Ref)</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr"/>
+          <t>Bethany Bradbury</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>bethanymbradbury@gmail.com</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -4793,14 +4793,14 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -4810,17 +4810,25 @@
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>1-Sep</t>
+          <t>28-Oct-2024</t>
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
@@ -4967,7 +4975,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tanyamistry94@gmail.com </t>
+          <t>Tanyamistry94@gmail.com // she cannot eat paneer // Moved from Jan</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -5044,11 +5052,7 @@
           <t>Vegan/Dairy free</t>
         </is>
       </c>
-      <c r="Y43" t="inlineStr">
-        <is>
-          <t>Tanyamistry94@gmail.com // she cannot eat paneer // Moved from Jan</t>
-        </is>
-      </c>
+      <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
           <t>3</t>
@@ -5082,7 +5086,11 @@
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>gwendeitz3611@gmail.com</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
@@ -5129,11 +5137,7 @@
       </c>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr">
-        <is>
-          <t>gwendeitz3611@gmail.com</t>
-        </is>
-      </c>
+      <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
           <t>3</t>
@@ -5158,12 +5162,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Janiya Runaya (DS Ref)</t>
+          <t>Sunita (DS Ref)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -5181,7 +5185,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -5200,7 +5204,7 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -5210,13 +5214,13 @@
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>28-Sep</t>
+          <t>1-Sep</t>
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V45" t="inlineStr"/>
@@ -5247,12 +5251,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Wahiba daughter-YB</t>
+          <t>Janiya Runaya (DS Ref)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -5270,7 +5274,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -5289,7 +5293,7 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -5299,13 +5303,13 @@
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>29-Aug</t>
+          <t>28-Sep</t>
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V46" t="inlineStr"/>
@@ -5725,7 +5729,11 @@
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>monicamilillo02@gmail.com</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
@@ -5776,11 +5784,7 @@
       </c>
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr">
-        <is>
-          <t>monicamilillo02@gmail.com</t>
-        </is>
-      </c>
+      <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
           <t>3</t>
@@ -5795,22 +5799,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>April 19, 2025</t>
+          <t>March 21, 2025</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>May 10, 2025</t>
+          <t>April 11, 2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Samantha Foster</t>
+          <t>Wahiba daughter-YB</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -5820,42 +5824,34 @@
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Instagram </t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -5865,35 +5861,27 @@
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>18-Aug-2024</t>
+          <t>29-Aug</t>
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr">
-        <is>
-          <t>samanthaannefoster@outlook.com//hold until 18.08</t>
-        </is>
-      </c>
+      <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>April 19, 2025 to May 10, 2025</t>
+          <t>March 21, 2025 to April 11, 2025</t>
         </is>
       </c>
     </row>
@@ -5910,12 +5898,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Julia Ben-YB</t>
+          <t>Samantha Foster</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -5927,12 +5915,12 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -5949,7 +5937,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Direct - I was recommended to visit</t>
+          <t xml:space="preserve">Instagram </t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -5970,7 +5958,7 @@
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>27-Aug</t>
+          <t>18-Aug-2024</t>
         </is>
       </c>
       <c r="T53" t="inlineStr"/>
@@ -5980,9 +5968,17 @@
         </is>
       </c>
       <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>samanthaannefoster@outlook.com//hold until 18.08</t>
+        </is>
+      </c>
       <c r="Z53" t="inlineStr">
         <is>
           <t>4</t>
@@ -6007,12 +6003,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Mosana Wahibi Rekhi-YB</t>
+          <t>Julia Ben-YB</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -6024,7 +6020,7 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -6046,7 +6042,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct - I was recommended to visit</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -6104,12 +6100,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Ylenia Votano</t>
+          <t>Mosana Wahibi Rekhi-YB</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -6121,7 +6117,7 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>UAE</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -6131,7 +6127,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -6154,7 +6150,7 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -6164,13 +6160,13 @@
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>15-Sep</t>
+          <t>27-Aug</t>
         </is>
       </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V55" t="inlineStr"/>
@@ -6191,22 +6187,22 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>May 14, 2025</t>
+          <t>April 19, 2025</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>June 04, 2025</t>
+          <t>May 10, 2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Melisa gomez jattin</t>
+          <t>Ylenia Votano</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -6214,16 +6210,16 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Mgomezjattin95@gmail.com</t>
-        </is>
-      </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -6232,11 +6228,7 @@
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -6244,7 +6236,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -6260,52 +6252,44 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>1699.43</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>15-Sep</t>
+        </is>
+      </c>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>400.57</t>
-        </is>
-      </c>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W56" t="inlineStr">
-        <is>
-          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
-        </is>
-      </c>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr">
-        <is>
-          <t>Moved from 1 DEC - 21 DEC 2024</t>
-        </is>
-      </c>
+      <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>May 14, 2025 to June 04, 2025</t>
+          <t>April 19, 2025 to May 10, 2025</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>August 05, 2025</t>
+          <t>May 14, 2025</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>August 26, 2025</t>
+          <t>June 04, 2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -6315,7 +6299,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Lydia May Ward</t>
+          <t>Melisa gomez jattin</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -6323,21 +6307,21 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Mgomezjattin95@gmail.com</t>
+        </is>
+      </c>
       <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -6353,14 +6337,10 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
           <t>No</t>
@@ -6368,49 +6348,57 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>11-Oct-2024</t>
-        </is>
-      </c>
+          <t>1699.43</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>2350</t>
-        </is>
-      </c>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
+          <t>400.57</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
+        </is>
+      </c>
       <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>Moved from 1 DEC - 21 DEC 2024</t>
+        </is>
+      </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>August 05, 2025 to August 26, 2025</t>
+          <t>May 14, 2025 to June 04, 2025</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>November 21, 2025</t>
+          <t>August 05, 2025</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>December 12, 2025</t>
+          <t>August 26, 2025</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -6420,7 +6408,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Jaina Patel</t>
+          <t>Lydia May Ward</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -6432,7 +6420,7 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -6442,7 +6430,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -6463,17 +6451,17 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>No</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>1890</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -6483,13 +6471,13 @@
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>10-Jul</t>
+          <t>11-Oct-2024</t>
         </is>
       </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>1490</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V58" t="inlineStr"/>
@@ -6498,34 +6486,34 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>November 21, 2025 to December 12, 2025</t>
+          <t>August 05, 2025 to August 26, 2025</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>December 16, 2025</t>
+          <t>November 21, 2025</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>January 06, 2026</t>
+          <t>December 12, 2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Anatta Vela</t>
+          <t>Jaina Patel</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -6534,20 +6522,20 @@
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>+19179388805</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -6561,12 +6549,24 @@
           <t>Sales assisted booking</t>
         </is>
       </c>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Search Engines - Google, Safari etc..</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>1890</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -6576,39 +6576,27 @@
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>28-May-2024</t>
+          <t>10-Jul</t>
         </is>
       </c>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>2350</t>
-        </is>
-      </c>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W59" t="inlineStr">
-        <is>
-          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
-        </is>
-      </c>
+          <t>1490</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr">
-        <is>
-          <t>anatta.vela@gmail.com moved from Dec 23rd 2024</t>
-        </is>
-      </c>
+      <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>December 16, 2025 to January 06, 2026</t>
+          <t>November 21, 2025 to December 12, 2025</t>
         </is>
       </c>
     </row>
@@ -6625,12 +6613,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Helena von Keller</t>
+          <t>Anatta Vela</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -6641,7 +6629,7 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>+491728129488</t>
+          <t>+19179388805</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -6652,7 +6640,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -6671,35 +6659,39 @@
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>12 July 2024</t>
+          <t>28-May-2024</t>
         </is>
       </c>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V60" t="inlineStr"/>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
       <c r="W60" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
         </is>
       </c>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>helena@vonkeller.org. Moved from 3 Sep 2024 - 23 Sep 2024. Management agreed to reschedule without additional charge. (amoCRM)</t>
+          <t>anatta.vela@gmail.com moved from Dec 23rd 2024</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
@@ -6726,25 +6718,25 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Paul Vigil</t>
+          <t>Helena von Keller</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>paul33vigil@gmail.com</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr"/>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>+491728129488</t>
+        </is>
+      </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
@@ -6772,47 +6764,148 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>01-May-2024</t>
+          <t>12 July 2024</t>
         </is>
       </c>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>PayPal</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr">
         <is>
-          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr">
         <is>
+          <t>helena@vonkeller.org. Moved from 3 Sep 2024 - 23 Sep 2024. Management agreed to reschedule without additional charge. (amoCRM)</t>
+        </is>
+      </c>
+      <c r="Z61" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AA61" t="inlineStr">
+        <is>
+          <t>December 16, 2025 to January 06, 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>December 16, 2025</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>January 06, 2026</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Paul Vigil</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>paul33vigil@gmail.com</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>01-May-2024</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr">
+        <is>
           <t>Moved from Dec 1st 2024 - doesn't mind sharing room with female</t>
         </is>
       </c>
-      <c r="Z61" t="inlineStr">
+      <c r="Z62" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="AA61" t="inlineStr">
+      <c r="AA62" t="inlineStr">
         <is>
           <t>December 16, 2025 to January 06, 2026</t>
         </is>

--- a/student_database_200hr.xlsx
+++ b/student_database_200hr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA62"/>
+  <dimension ref="A1:AA64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -704,12 +704,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Alina Iuga</t>
+          <t>Sarah Lober</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>alinaiuga2@gmail.com</t>
+          <t>lober.sarah@gmx.de</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -731,7 +731,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -742,14 +742,10 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Direct (ex student)</t>
-        </is>
-      </c>
+          <t>Direct - paid w/t assist</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -758,7 +754,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -766,21 +762,25 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr"/>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>28-Oct-2024</t>
+        </is>
+      </c>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2350</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr"/>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>Originally booked in 2023</t>
-        </is>
-      </c>
+      <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
           <t>1</t>
@@ -805,12 +805,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Julie Hollard</t>
+          <t>Alina Iuga</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>hollardjulie@gmail.com</t>
+          <t>alinaiuga2@gmail.com</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -838,7 +838,7 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Direct (ex student)</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -867,25 +867,21 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>26-Oct-2024</t>
-        </is>
-      </c>
+      <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
           <t>2350</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>Stripe</t>
-        </is>
-      </c>
+      <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>Originally booked in 2023</t>
+        </is>
+      </c>
       <c r="Z4" t="inlineStr">
         <is>
           <t>1</t>
@@ -910,12 +906,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Dani Bass</t>
+          <t>Julie Hollard</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -925,15 +921,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dani.bass@btinternet.com</t>
+          <t>hollardjulie@gmail.com</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -947,7 +939,7 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -973,28 +965,28 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>26-Oct-2024</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>2750</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Stripe</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>Bank transfer made</t>
-        </is>
-      </c>
+      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
           <t>1</t>
@@ -1019,12 +1011,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Vyla Carter</t>
+          <t>Dani Bass</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1032,17 +1024,25 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Dani.bass@btinternet.com</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -1069,31 +1069,31 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>14-Oct-2024</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>Additional 2 days stay - 24/25 Jan @ $90 per day. Will pay with the balance</t>
+          <t>Bank transfer made</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1120,12 +1120,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Katrina Di</t>
+          <t>Vyla Carter</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1133,25 +1133,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Katrinadin@gmail.com</t>
-        </is>
-      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -1178,7 +1170,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1194,19 +1186,15 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>additional night on the 16th of February</t>
+          <t>Additional 2 days stay - 24/25 Jan @ $90 per day. Will pay with the balance</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1233,25 +1221,33 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Samin Yoga Gp 5</t>
+          <t>Katrina Di</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Katrinadin@gmail.com</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1288,24 +1284,32 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>2746.24</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>13-Oct-2024</t>
+          <t>14-Oct-2024</t>
         </is>
       </c>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>additional night on the 16th of February</t>
+        </is>
+      </c>
       <c r="Z8" t="inlineStr">
         <is>
           <t>1</t>
@@ -1330,17 +1334,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Samin Yoga Gp 4</t>
+          <t>Samin Yoga Gp 5</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -1427,12 +1431,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Samin Yoga Gp 2</t>
+          <t>Samin Yoga Gp 4</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1450,7 +1454,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -1477,7 +1481,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1493,7 +1497,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V10" t="inlineStr"/>
@@ -1524,12 +1528,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Samin Yoga Gp 1</t>
+          <t>Samin Yoga Gp 2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1621,12 +1625,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Samantha (with dghtr)</t>
+          <t>Samin Yoga Gp 1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1644,7 +1648,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1671,7 +1675,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1681,21 +1685,17 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>12-Oct-2024</t>
+          <t>13-Oct-2024</t>
         </is>
       </c>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
@@ -1722,12 +1722,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Samin Yoga Gp 3</t>
+          <t>Samantha (with dghtr)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1782,17 +1782,21 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>13-Oct-2024</t>
+          <t>12-Oct-2024</t>
         </is>
       </c>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
@@ -1819,12 +1823,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Brooke O'Connor</t>
+          <t>Samin Yoga Gp 3</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1832,16 +1836,12 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>bgoc2013@icloud.com</t>
-        </is>
-      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>17-Oct-2024</t>
+          <t>13-Oct-2024</t>
         </is>
       </c>
       <c r="T14" t="inlineStr"/>
@@ -1892,16 +1892,8 @@
           <t>1700</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>Bank transfer</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
@@ -1928,12 +1920,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Veronika Schaller</t>
+          <t>Brooke O'Connor</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1943,7 +1935,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vroni.schaller@web.de</t>
+          <t>bgoc2013@icloud.com</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -1977,7 +1969,7 @@
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -1992,7 +1984,7 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>22-Aug-2024</t>
+          <t>17-Oct-2024</t>
         </is>
       </c>
       <c r="T15" t="inlineStr"/>
@@ -2003,7 +1995,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>Xendit</t>
+          <t>Bank transfer</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
@@ -2012,11 +2004,7 @@
         </is>
       </c>
       <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>Vroni.schaller@web.de</t>
-        </is>
-      </c>
+      <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
           <t>1</t>
@@ -2041,12 +2029,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Chloe Holden</t>
+          <t>Veronika Schaller</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2056,7 +2044,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>chloeholden1402@gmail.com</t>
+          <t>Vroni.schaller@web.de</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -2079,7 +2067,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -2090,7 +2078,7 @@
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -2100,18 +2088,18 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>13-Oct-2024</t>
+          <t>22-Aug-2024</t>
         </is>
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -2124,12 +2112,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>Gluten Free</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>Vroni.schaller@web.de</t>
+        </is>
+      </c>
       <c r="Z16" t="inlineStr">
         <is>
           <t>1</t>
@@ -2154,30 +2142,26 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Jan Röttgen</t>
+          <t>Chloe Holden</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Capeman2110@gmail.com</t>
+          <t>chloeholden1402@gmail.com</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -2196,7 +2180,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -2217,23 +2201,23 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>382.25</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>22-Aug-2024</t>
+          <t>13-Oct-2024</t>
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>1717.75</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>PayPal</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
@@ -2241,7 +2225,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="X17" t="inlineStr"/>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Gluten Free</t>
+        </is>
+      </c>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
@@ -2267,26 +2255,30 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Ellie Walters</t>
+          <t>Jan Röttgen</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>elliewalters98@gmail.com</t>
+          <t>Capeman2110@gmail.com</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -2298,10 +2290,14 @@
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -2322,23 +2318,23 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>382.25</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>4-Sep-2024</t>
+          <t>22-Aug-2024</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>1717.75</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Xendit</t>
+          <t>PayPal</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
@@ -2347,11 +2343,7 @@
         </is>
       </c>
       <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>elliewalters98@gmail.com</t>
-        </is>
-      </c>
+      <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
           <t>1</t>
@@ -2376,12 +2368,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Caroline Kohl</t>
+          <t>Ellie Walters</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2391,19 +2383,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>caroline_kohl@web.de</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0049 171 691 2356</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>caroline_kohl@web.de</t>
-        </is>
-      </c>
+          <t>elliewalters98@gmail.com</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -2418,7 +2402,7 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -2444,7 +2428,7 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5-Sep-2024</t>
+          <t>4-Sep-2024</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
@@ -2455,7 +2439,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>PayPal</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
@@ -2466,7 +2450,7 @@
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>caroline_kohl@web.de</t>
+          <t>elliewalters98@gmail.com</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2493,12 +2477,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Amalia Sepan</t>
+          <t>Caroline Kohl</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2508,13 +2492,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve">amalia.sepan@icloud.com </t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
+          <t>caroline_kohl@web.de</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0049 171 691 2356</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>caroline_kohl@web.de</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2527,16 +2515,8 @@
           <t>Twin share</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Partner // Sharing Room</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -2560,18 +2540,18 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>382.25</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>22-Aug-2024</t>
+          <t>5-Sep-2024</t>
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>1717.75</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -2587,7 +2567,7 @@
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>Together // amalia.sepan@icloud.com // Capeman2110@gmail.com</t>
+          <t>caroline_kohl@web.de</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2614,12 +2594,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Maddison Ball</t>
+          <t>Amalia Sepan</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2627,20 +2607,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>+44 7958 032112</t>
-        </is>
-      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">amalia.sepan@icloud.com </t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -2648,7 +2628,11 @@
           <t>Twin share</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Partner // Sharing Room</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
           <t>No</t>
@@ -2661,7 +2645,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
@@ -2677,28 +2661,36 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>382.25</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>10-Aug-2024</t>
+          <t>22-Aug-2024</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>1717.75</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Bank transfer</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr"/>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>Together // amalia.sepan@icloud.com // Capeman2110@gmail.com</t>
+        </is>
+      </c>
       <c r="Z21" t="inlineStr">
         <is>
           <t>1</t>
@@ -2723,38 +2715,38 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Pien Bergshoeff</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>pienbergshoeff@gmail.com</t>
-        </is>
-      </c>
+          <t>Maddison Ball</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>+31621237804</t>
+          <t>+44 7958 032112</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Netherland</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -2765,12 +2757,12 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
@@ -2781,41 +2773,33 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>1262.38</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>26-Sep-2024</t>
+          <t>10-Aug-2024</t>
         </is>
       </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>1487.62</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Bank transfer</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Will join the short retreat, first retreat will be scheduled from the 23rd of January - 26th of January and the second retreat will be from the 16th of February - 19th of February 2025. </t>
-        </is>
-      </c>
+      <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
           <t>1</t>
@@ -2840,32 +2824,28 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Amy Sobocinski</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
+          <t>Pien Bergshoeff</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Amymsobocinski@gmail.com</t>
+          <t>pienbergshoeff@gmail.com</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>+14102994767</t>
+          <t>+31621237804</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Netherland</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2886,7 +2866,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2907,23 +2887,23 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>1262.38</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>01-Oct-2024</t>
+          <t>26-Sep-2024</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1487.62</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Stripe</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
@@ -2932,7 +2912,11 @@
         </is>
       </c>
       <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Will join the short retreat, first retreat will be scheduled from the 23rd of January - 26th of January and the second retreat will be from the 16th of February - 19th of February 2025. </t>
+        </is>
+      </c>
       <c r="Z23" t="inlineStr">
         <is>
           <t>1</t>
@@ -2957,36 +2941,48 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Adrian Sotelo</t>
+          <t>Amy Sobocinski</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Amymsobocinski@gmail.com</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>+14102994767</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2996,7 +2992,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
@@ -3007,7 +3003,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>4200</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -3017,18 +3013,18 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>22-Sep-2024</t>
+          <t>01-Oct-2024</t>
         </is>
       </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>3800</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>PayPal</t>
+          <t>Stripe</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
@@ -3052,39 +3048,35 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>February 24, 2025</t>
+          <t>January 26, 2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>March 17, 2025</t>
+          <t>February 16, 2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Nathalia Ramirez</t>
+          <t>Adrian Sotelo</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>nathy924@hotmail.com</t>
-        </is>
-      </c>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3092,14 +3084,10 @@
           <t>Twin share</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -3109,7 +3097,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -3120,7 +3108,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -3130,18 +3118,18 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>28 September 2024</t>
+          <t>22-Sep-2024</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>3800</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Xendit</t>
+          <t>PayPal</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -3150,19 +3138,15 @@
         </is>
       </c>
       <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>Husband &amp; Wife - sharing Private Room // Nat has mild pollen allergy, but taking medications and she will be fine</t>
-        </is>
-      </c>
+      <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>February 24, 2025 to March 17, 2025</t>
+          <t>January 26, 2025 to February 16, 2025</t>
         </is>
       </c>
     </row>
@@ -3179,29 +3163,25 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Gabriel Campaner Bascuñana</t>
+          <t>Nathalia Ramirez</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>GabrielCampanerCoach@gmail.com</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>3460387145</t>
-        </is>
-      </c>
+          <t>nathy924@hotmail.com</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
@@ -3213,7 +3193,11 @@
           <t>Twin share</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
           <t>No</t>
@@ -3224,7 +3208,11 @@
           <t>Sales assisted booking</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3238,22 +3226,34 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>28 September 2024</t>
+        </is>
+      </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>2100</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>Hold until 29.10</t>
+          <t>Husband &amp; Wife - sharing Private Room // Nat has mild pollen allergy, but taking medications and she will be fine</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3280,25 +3280,29 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Nicole Dubinin</t>
+          <t>Gabriel Campaner Bascuñana</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Nicoledubinin9@gmail.com</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
+          <t>GabrielCampanerCoach@gmail.com</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>3460387145</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
@@ -3321,11 +3325,7 @@
           <t>Sales assisted booking</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
-        </is>
-      </c>
+      <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
@@ -3339,30 +3339,22 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>16 October 2024</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>Nicoledubinin9@gmail.com</t>
+          <t>Hold until 29.10</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3389,12 +3381,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kristhianne Cid de León </t>
+          <t>Nicole Dubinin</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -3402,12 +3394,16 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Nicoledubinin9@gmail.com</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -3428,7 +3424,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
@@ -3449,7 +3445,7 @@
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>10-Jul-2024</t>
+          <t>16 October 2024</t>
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
@@ -3458,16 +3454,16 @@
           <t>1700</t>
         </is>
       </c>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
-        </is>
-      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>Booked in Jul 2024 at previous fee. Due to injury changing to Feb 2024 with the new fee</t>
+          <t>Nicoledubinin9@gmail.com</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -3494,12 +3490,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Jessica Eryeti Dy</t>
+          <t xml:space="preserve">Kristhianne Cid de León </t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -3507,16 +3503,12 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>jessicaedy.work@gmail.com</t>
-        </is>
-      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -3537,7 +3529,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -3558,7 +3550,7 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>7-Sep-2024</t>
+          <t>10-Jul-2024</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
@@ -3567,16 +3559,16 @@
           <t>1700</t>
         </is>
       </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>Bank Transfer</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
+        </is>
+      </c>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> jessicaedy.wok@gmail.com</t>
+          <t>Booked in Jul 2024 at previous fee. Due to injury changing to Feb 2024 with the new fee</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -3603,29 +3595,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Ben McDonald-Stuart</t>
+          <t>Jessica Eryeti Dy</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>jessicaedy.work@gmail.com</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -3634,7 +3626,11 @@
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M30" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -3642,7 +3638,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
@@ -3663,7 +3659,7 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>20-Sep</t>
+          <t>7-Sep-2024</t>
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
@@ -3674,16 +3670,16 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>PayPal</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Bank Transfer</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> jessicaedy.wok@gmail.com</t>
+        </is>
+      </c>
       <c r="Z30" t="inlineStr">
         <is>
           <t>2</t>
@@ -3708,12 +3704,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Jonathan Saldarriaga</t>
+          <t>Ben McDonald-Stuart</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3721,20 +3717,16 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Jonathan0391@hotmail.com</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>+4917664828174</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -3742,16 +3734,8 @@
           <t>Twin share</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -3759,7 +3743,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -3780,7 +3764,7 @@
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>28 September 2024</t>
+          <t>20-Sep</t>
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
@@ -3791,7 +3775,7 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Xendit</t>
+          <t>PayPal</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
@@ -3825,29 +3809,33 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Jutta</t>
+          <t>Jonathan Saldarriaga</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Jonathan0391@hotmail.com</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>+4917664828174</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -3857,7 +3845,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -3872,7 +3860,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -3891,7 +3879,11 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr"/>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>28 September 2024</t>
+        </is>
+      </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
@@ -3900,10 +3892,14 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>PayPal</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr"/>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
@@ -3930,17 +3926,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Asaf kehati</t>
+          <t>Jutta</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -3962,7 +3958,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -3996,11 +3992,7 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>10-Sep</t>
-        </is>
-      </c>
+      <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
@@ -4039,24 +4031,24 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Carly Murphy</t>
+          <t>Asaf kehati</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -4066,10 +4058,14 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Private</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr"/>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
           <t>No</t>
@@ -4093,7 +4089,7 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -4103,13 +4099,13 @@
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>10-Aug-2024</t>
+          <t>10-Sep</t>
         </is>
       </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -4119,11 +4115,7 @@
       </c>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr">
-        <is>
-          <t>Booking done in early Aug but updated the sheet late</t>
-        </is>
-      </c>
+      <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
           <t>2</t>
@@ -4148,12 +4140,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Mahariana</t>
+          <t>Carly Murphy</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -4163,7 +4155,11 @@
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
       <c r="I35" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -4198,7 +4194,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -4206,11 +4202,15 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr"/>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>10-Aug-2024</t>
+        </is>
+      </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>1572</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -4222,7 +4222,7 @@
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Already paid $400 to HOM but changed to Retreat and then further change to TTC in 2025 after multiple calls </t>
+          <t>Booking done in early Aug but updated the sheet late</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
@@ -4249,12 +4249,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Sarah Rayment Davies</t>
+          <t>Mahariana</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -4272,7 +4272,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -4299,7 +4299,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -4311,7 +4311,7 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>1572</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -4321,7 +4321,11 @@
       </c>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Already paid $400 to HOM but changed to Retreat and then further change to TTC in 2025 after multiple calls </t>
+        </is>
+      </c>
       <c r="Z36" t="inlineStr">
         <is>
           <t>2</t>
@@ -4346,12 +4350,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Kanan</t>
+          <t>Sarah Rayment Davies</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -4361,11 +4365,7 @@
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -4373,7 +4373,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -4393,25 +4393,33 @@
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr"/>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
@@ -4439,12 +4447,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Maren Refert</t>
+          <t>Kanan</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -4452,21 +4460,21 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>maren.refert@gmx.com</t>
-        </is>
-      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -4477,46 +4485,34 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>21 Sep 2024</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
@@ -4544,12 +4540,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Anna Stubbs</t>
+          <t>Maren Refert</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -4557,21 +4553,21 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>maren.refert@gmx.com</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -4582,12 +4578,12 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -4598,7 +4594,7 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -4608,18 +4604,18 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>19-Aug-2024</t>
+          <t>21 Sep 2024</t>
         </is>
       </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>PayPal</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -4649,12 +4645,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Ulrike Maier</t>
+          <t>Anna Stubbs</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -4662,21 +4658,21 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>maier.ulrike64@gmx.de</t>
-        </is>
-      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -4692,7 +4688,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Instagram </t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -4703,23 +4699,23 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>399.31</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>21-Aug-2024</t>
+          <t>19-Aug-2024</t>
         </is>
       </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>1700.69</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -4729,11 +4725,7 @@
       </c>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr">
-        <is>
-          <t>maier.ulrike64@gmx.de</t>
-        </is>
-      </c>
+      <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
           <t>2</t>
@@ -4748,28 +4740,32 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>March 21, 2025</t>
+          <t>February 24, 2025</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>April 11, 2025</t>
+          <t>March 17, 2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Bethany Bradbury</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
+          <t>Ulrike Maier</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>bethanymbradbury@gmail.com</t>
+          <t>maier.ulrike64@gmx.de</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -4781,64 +4777,72 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t xml:space="preserve">Instagram </t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>399.31</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>28-Oct-2024</t>
+          <t>21-Aug-2024</t>
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700.69</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>maier.ulrike64@gmx.de</t>
+        </is>
+      </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>March 21, 2025 to April 11, 2025</t>
+          <t>February 24, 2025 to March 17, 2025</t>
         </is>
       </c>
     </row>
@@ -4855,22 +4859,18 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Jéssica Schleiermacher</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
+          <t>Bethany Bradbury</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>jessicasimiro@gmail.com</t>
+          <t>bethanymbradbury@gmail.com</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -4889,7 +4889,7 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -4898,11 +4898,7 @@
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
           <t>2750</t>
@@ -4915,7 +4911,7 @@
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>24-Oct-2024</t>
+          <t>28-Oct-2024</t>
         </is>
       </c>
       <c r="T42" t="inlineStr"/>
@@ -4960,12 +4956,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Tanya Mistry</t>
+          <t>Jéssica Schleiermacher</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -4975,19 +4971,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Tanyamistry94@gmail.com // she cannot eat paneer // Moved from Jan</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>919820611611</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+          <t>jessicasimiro@gmail.com</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -5028,7 +5016,7 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>31-Aug-2024</t>
+          <t>24-Oct-2024</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
@@ -5039,7 +5027,7 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Stripe</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
@@ -5047,11 +5035,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="X43" t="inlineStr">
-        <is>
-          <t>Vegan/Dairy free</t>
-        </is>
-      </c>
+      <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
@@ -5077,22 +5061,34 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Gwen Deitz</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
+          <t>Tanya Mistry</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>gwendeitz3611@gmail.com</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
+          <t>Tanyamistry94@gmail.com // she cannot eat paneer // Moved from Jan</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>919820611611</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="I44" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -5100,18 +5096,30 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
       <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -5121,22 +5129,30 @@
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>10-Oct-2024</t>
+          <t>31-Aug-2024</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
+          <t>Stripe</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>Vegan/Dairy free</t>
+        </is>
+      </c>
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
@@ -5162,25 +5178,25 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Sunita (DS Ref)</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr"/>
+          <t>Gwen Deitz</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>gwendeitz3611@gmail.com</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -5190,16 +5206,8 @@
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>Direct - paid w/t assist</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>Search Engines - Google, Safari etc..</t>
-        </is>
-      </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
@@ -5214,7 +5222,7 @@
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>1-Sep</t>
+          <t>10-Oct-2024</t>
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
@@ -5223,7 +5231,11 @@
           <t>1700</t>
         </is>
       </c>
-      <c r="V45" t="inlineStr"/>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
@@ -5251,12 +5263,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Janiya Runaya (DS Ref)</t>
+          <t>Sunita (DS Ref)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -5274,7 +5286,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -5293,7 +5305,7 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -5303,13 +5315,13 @@
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>28-Sep</t>
+          <t>1-Sep</t>
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V46" t="inlineStr"/>
@@ -5340,12 +5352,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Wahiba-YB</t>
+          <t>Janiya Runaya (DS Ref)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -5363,7 +5375,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -5382,7 +5394,7 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -5392,13 +5404,13 @@
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>29-Aug</t>
+          <t>28-Sep</t>
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V47" t="inlineStr"/>
@@ -5429,12 +5441,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Rumera Ash-REF</t>
+          <t>Wahiba-YB</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -5452,7 +5464,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -5471,7 +5483,7 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -5481,13 +5493,13 @@
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>12-Aug</t>
+          <t>29-Aug</t>
         </is>
       </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V48" t="inlineStr"/>
@@ -5518,12 +5530,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Rumera Ash-REF</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -5541,19 +5553,11 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Twin share</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
           <t>Direct - paid w/t assist</t>
@@ -5568,7 +5572,7 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -5578,20 +5582,16 @@
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>9-Jul-2024</t>
+          <t>12-Aug</t>
         </is>
       </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>PayPal</t>
-        </is>
-      </c>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
@@ -5619,17 +5619,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>Lisa</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -5647,7 +5647,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -5720,45 +5720,57 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Monica Milillo</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>monicamilillo02@gmail.com</t>
-        </is>
-      </c>
+          <t>Richard</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Private</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr"/>
+          <t>Direct - paid w/t assist</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Search Engines - Google, Safari etc..</t>
+        </is>
+      </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -5768,18 +5780,18 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>8-Sep-2024</t>
+          <t>9-Jul-2024</t>
         </is>
       </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Xendit</t>
+          <t>PayPal</t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
@@ -5809,49 +5821,45 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Wahiba daughter-YB</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr"/>
+          <t>Monica Milillo</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>monicamilillo02@gmail.com</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Direct - paid w/t assist</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Search Engines - Google, Safari etc..</t>
-        </is>
-      </c>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -5861,16 +5869,20 @@
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>29-Aug</t>
+          <t>8-Sep-2024</t>
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="V52" t="inlineStr"/>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
@@ -5888,22 +5900,22 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>April 19, 2025</t>
+          <t>March 21, 2025</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>May 10, 2025</t>
+          <t>April 11, 2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Samantha Foster</t>
+          <t>Wahiba daughter-YB</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -5913,42 +5925,34 @@
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Direct - paid w/t assist</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Instagram </t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -5958,35 +5962,27 @@
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>18-Aug-2024</t>
+          <t>29-Aug</t>
         </is>
       </c>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr">
-        <is>
-          <t>samanthaannefoster@outlook.com//hold until 18.08</t>
-        </is>
-      </c>
+      <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>April 19, 2025 to May 10, 2025</t>
+          <t>March 21, 2025 to April 11, 2025</t>
         </is>
       </c>
     </row>
@@ -6003,12 +5999,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Julia Ben-YB</t>
+          <t>Mia</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -6016,21 +6012,21 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>miavisualdesign@gmail.com</t>
+        </is>
+      </c>
       <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -6040,11 +6036,7 @@
           <t>Sales assisted booking</t>
         </is>
       </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Direct - I was recommended to visit</t>
-        </is>
-      </c>
+      <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
@@ -6053,29 +6045,33 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>27-Aug</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>Vegan/Dairy free</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>allergic to  walnuts, eggplants, and raw tomatoes</t>
+        </is>
+      </c>
       <c r="Z54" t="inlineStr">
         <is>
           <t>4</t>
@@ -6100,12 +6096,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Mosana Wahibi Rekhi-YB</t>
+          <t>Ylenia Votano</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -6117,7 +6113,7 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -6127,7 +6123,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -6150,7 +6146,7 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -6160,13 +6156,13 @@
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>27-Aug</t>
+          <t>15-Sep</t>
         </is>
       </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V55" t="inlineStr"/>
@@ -6197,12 +6193,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Ylenia Votano</t>
+          <t>Mosana Wahibi Rekhi-YB</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -6214,7 +6210,7 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>UAE</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -6224,7 +6220,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -6247,7 +6243,7 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -6257,13 +6253,13 @@
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>15-Sep</t>
+          <t>27-Aug</t>
         </is>
       </c>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V56" t="inlineStr"/>
@@ -6284,12 +6280,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>May 14, 2025</t>
+          <t>April 19, 2025</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>June 04, 2025</t>
+          <t>May 10, 2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -6299,7 +6295,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Melisa gomez jattin</t>
+          <t>Samantha Foster</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -6307,13 +6303,13 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Mgomezjattin95@gmail.com</t>
-        </is>
-      </c>
+      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
       <c r="I57" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -6321,15 +6317,11 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -6337,7 +6329,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t xml:space="preserve">Instagram </t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -6348,67 +6340,67 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>1699.43</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>18-Aug-2024</t>
+        </is>
+      </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>400.57</t>
-        </is>
-      </c>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr">
         <is>
-          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
+          <t>No</t>
         </is>
       </c>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>Moved from 1 DEC - 21 DEC 2024</t>
+          <t>samanthaannefoster@outlook.com//hold until 18.08</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>May 14, 2025 to June 04, 2025</t>
+          <t>April 19, 2025 to May 10, 2025</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>August 05, 2025</t>
+          <t>April 19, 2025</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>August 26, 2025</t>
+          <t>May 10, 2025</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Lydia May Ward</t>
+          <t>Julia Ben-YB</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -6420,7 +6412,7 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -6434,11 +6426,7 @@
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -6446,14 +6434,10 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Direct - I was recommended to visit</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
           <t>No</t>
@@ -6471,7 +6455,7 @@
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>11-Oct-2024</t>
+          <t>27-Aug</t>
         </is>
       </c>
       <c r="T58" t="inlineStr"/>
@@ -6486,24 +6470,24 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>August 05, 2025 to August 26, 2025</t>
+          <t>April 19, 2025 to May 10, 2025</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>November 21, 2025</t>
+          <t>May 14, 2025</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>December 12, 2025</t>
+          <t>June 04, 2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -6513,7 +6497,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Jaina Patel</t>
+          <t>Melisa gomez jattin</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -6521,16 +6505,16 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Mgomezjattin95@gmail.com</t>
+        </is>
+      </c>
       <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -6551,74 +6535,78 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
-      </c>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>1890</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>10-Jul</t>
-        </is>
-      </c>
+          <t>1699.43</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>1490</t>
-        </is>
-      </c>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
+          <t>400.57</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
+        </is>
+      </c>
       <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>Moved from 1 DEC - 21 DEC 2024</t>
+        </is>
+      </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>November 21, 2025 to December 12, 2025</t>
+          <t>May 14, 2025 to June 04, 2025</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>December 16, 2025</t>
+          <t>August 05, 2025</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>January 06, 2026</t>
+          <t>August 26, 2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Anatta Vela</t>
+          <t>Lydia May Ward</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -6627,15 +6615,15 @@
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>+19179388805</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -6654,9 +6642,21 @@
           <t>Sales assisted booking</t>
         </is>
       </c>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Search Engines - Google, Safari etc..</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q60" t="inlineStr">
         <is>
           <t>2750</t>
@@ -6669,7 +6669,7 @@
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>28-May-2024</t>
+          <t>11-Oct-2024</t>
         </is>
       </c>
       <c r="T60" t="inlineStr"/>
@@ -6678,42 +6678,30 @@
           <t>2350</t>
         </is>
       </c>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W60" t="inlineStr">
-        <is>
-          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
-        </is>
-      </c>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr">
-        <is>
-          <t>anatta.vela@gmail.com moved from Dec 23rd 2024</t>
-        </is>
-      </c>
+      <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>December 16, 2025 to January 06, 2026</t>
+          <t>August 05, 2025 to August 26, 2025</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>December 16, 2025</t>
+          <t>November 21, 2025</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>January 06, 2026</t>
+          <t>December 12, 2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -6723,7 +6711,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Helena von Keller</t>
+          <t>Jaina Patel</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -6732,15 +6720,15 @@
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>+491728129488</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -6759,50 +6747,54 @@
           <t>Sales assisted booking</t>
         </is>
       </c>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Search Engines - Google, Safari etc..</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>1890</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>12 July 2024</t>
+          <t>10-Jul</t>
         </is>
       </c>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1490</t>
         </is>
       </c>
       <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
+      <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr">
-        <is>
-          <t>helena@vonkeller.org. Moved from 3 Sep 2024 - 23 Sep 2024. Management agreed to reschedule without additional charge. (amoCRM)</t>
-        </is>
-      </c>
+      <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>December 16, 2025 to January 06, 2026</t>
+          <t>November 21, 2025 to December 12, 2025</t>
         </is>
       </c>
     </row>
@@ -6819,25 +6811,25 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Paul Vigil</t>
+          <t>Anatta Vela</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>paul33vigil@gmail.com</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr"/>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>+19179388805</t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
@@ -6846,7 +6838,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -6865,7 +6857,7 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -6875,18 +6867,18 @@
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>01-May-2024</t>
+          <t>28-May-2024</t>
         </is>
       </c>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>PayPal</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
@@ -6897,15 +6889,221 @@
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr">
         <is>
+          <t>anatta.vela@gmail.com moved from Dec 23rd 2024</t>
+        </is>
+      </c>
+      <c r="Z62" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AA62" t="inlineStr">
+        <is>
+          <t>December 16, 2025 to January 06, 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>December 16, 2025</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>January 06, 2026</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Helena von Keller</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>+491728129488</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>12 July 2024</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>helena@vonkeller.org. Moved from 3 Sep 2024 - 23 Sep 2024. Management agreed to reschedule without additional charge. (amoCRM)</t>
+        </is>
+      </c>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AA63" t="inlineStr">
+        <is>
+          <t>December 16, 2025 to January 06, 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>December 16, 2025</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>January 06, 2026</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Paul Vigil</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>paul33vigil@gmail.com</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>01-May-2024</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr">
+        <is>
           <t>Moved from Dec 1st 2024 - doesn't mind sharing room with female</t>
         </is>
       </c>
-      <c r="Z62" t="inlineStr">
+      <c r="Z64" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="AA62" t="inlineStr">
+      <c r="AA64" t="inlineStr">
         <is>
           <t>December 16, 2025 to January 06, 2026</t>
         </is>
